--- a/src/MGRAST/Templates/MGRAST_MetaData_template_1.2.xlsx
+++ b/src/MGRAST/Templates/MGRAST_MetaData_template_1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1620" windowWidth="26780" windowHeight="17600" tabRatio="826"/>
+    <workbookView xWindow="1040" yWindow="2040" windowWidth="26780" windowHeight="17600" tabRatio="826" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="806">
   <si>
     <t>misc_param</t>
   </si>
@@ -278,12 +278,6 @@
   </si>
   <si>
     <t>Unique name or id of the sample the library is derived from</t>
-  </si>
-  <si>
-    <t>Library construction type. This field is either metagenome for whole genome shotgun sequencing or mimarks-survey for amplicon/16S rRNA sequencing</t>
-  </si>
-  <si>
-    <t>Sequencing method used. Use one of: Sanger, pyrosequencing, ABI-solid, 454, Illumina, assembeled, other</t>
   </si>
   <si>
     <t>Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms).</t>
@@ -2442,6 +2436,27 @@
   </si>
   <si>
     <t>Sequencing direction, valid terms are forward, reverse, both - requied by VAMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library construction type. This field is either metagenome for whole genome shotgun sequencing or mimarks-survey for amplicon/target gene (eg. 16S) sequencing. Use one of: metagenome, mimarks-survey. </t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>1. Please enter data starting with first empty row, do not overwrite pre-filled rows</t>
+  </si>
+  <si>
+    <t>2. Each sample must have only one enviromental package associated with it</t>
+  </si>
+  <si>
+    <t>3. Each sample must have one, but may have more than one, library associated with it</t>
+  </si>
+  <si>
+    <t>4. Library field 'metagenome_name' must be unique for each library, and will be the name of the MG-RAST metagenome</t>
+  </si>
+  <si>
+    <t>Sequencing method used. Use one of: Sanger, pyrosequencing, ABI-solid, 454, Illumina, assembled, other</t>
   </si>
 </sst>
 </file>
@@ -2505,8 +2520,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2527,17 +2574,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2867,54 +2946,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>714</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD16">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2938,97 +3050,97 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" t="s">
         <v>346</v>
       </c>
-      <c r="C1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1" t="s">
-        <v>348</v>
-      </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
-        <v>241</v>
-      </c>
       <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
-        <v>293</v>
-      </c>
-      <c r="O1" t="s">
-        <v>248</v>
-      </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T1" t="s">
-        <v>257</v>
-      </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="W1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" t="s">
         <v>204</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>206</v>
       </c>
       <c r="AG1" t="s">
         <v>0</v>
@@ -3039,104 +3151,110 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
         <v>349</v>
       </c>
-      <c r="C2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" t="s">
-        <v>351</v>
-      </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
         <v>267</v>
       </c>
-      <c r="G2" t="s">
-        <v>269</v>
-      </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="J2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" t="s">
         <v>319</v>
       </c>
-      <c r="L2" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>274</v>
       </c>
-      <c r="N2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" t="s">
-        <v>276</v>
-      </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T2" t="s">
         <v>283</v>
       </c>
-      <c r="S2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T2" t="s">
-        <v>285</v>
-      </c>
       <c r="U2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Z2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF2" t="s">
         <v>226</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>228</v>
       </c>
       <c r="AG2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3160,94 +3278,94 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
-        <v>241</v>
-      </c>
       <c r="G1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
         <v>242</v>
       </c>
-      <c r="H1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" t="s">
         <v>244</v>
       </c>
-      <c r="K1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" t="s">
         <v>246</v>
       </c>
-      <c r="M1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" t="s">
-        <v>248</v>
-      </c>
       <c r="O1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" t="s">
         <v>255</v>
       </c>
-      <c r="R1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" t="s">
-        <v>257</v>
-      </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="U1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="V1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="X1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE1" t="s">
         <v>204</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>206</v>
       </c>
       <c r="AF1" t="s">
         <v>0</v>
@@ -3258,100 +3376,105 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
         <v>267</v>
       </c>
-      <c r="F2" t="s">
-        <v>269</v>
-      </c>
       <c r="G2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" t="s">
         <v>318</v>
       </c>
-      <c r="I2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" t="s">
         <v>319</v>
       </c>
-      <c r="K2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>274</v>
       </c>
-      <c r="M2" t="s">
-        <v>321</v>
-      </c>
-      <c r="N2" t="s">
-        <v>276</v>
-      </c>
       <c r="O2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S2" t="s">
         <v>283</v>
       </c>
-      <c r="R2" t="s">
-        <v>284</v>
-      </c>
-      <c r="S2" t="s">
-        <v>285</v>
-      </c>
       <c r="T2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Y2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE2" t="s">
         <v>226</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>228</v>
       </c>
       <c r="AF2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3376,97 +3499,97 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" t="s">
-        <v>358</v>
-      </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
-        <v>241</v>
-      </c>
       <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
-        <v>293</v>
-      </c>
-      <c r="O1" t="s">
-        <v>248</v>
-      </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T1" t="s">
-        <v>257</v>
-      </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="W1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" t="s">
         <v>204</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>206</v>
       </c>
       <c r="AG1" t="s">
         <v>0</v>
@@ -3477,103 +3600,108 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
         <v>359</v>
       </c>
-      <c r="C2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" t="s">
-        <v>361</v>
-      </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
         <v>267</v>
       </c>
-      <c r="G2" t="s">
-        <v>269</v>
-      </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="J2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" t="s">
         <v>319</v>
       </c>
-      <c r="L2" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>274</v>
       </c>
-      <c r="N2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" t="s">
-        <v>276</v>
-      </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" t="s">
+        <v>282</v>
+      </c>
+      <c r="T2" t="s">
         <v>283</v>
       </c>
-      <c r="S2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T2" t="s">
-        <v>285</v>
-      </c>
       <c r="U2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Z2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF2" t="s">
         <v>226</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>228</v>
       </c>
       <c r="AG2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3598,115 +3726,115 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" t="s">
         <v>362</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>365</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>366</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>367</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>369</v>
       </c>
-      <c r="J1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" t="s">
-        <v>371</v>
-      </c>
       <c r="L1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="s">
-        <v>292</v>
-      </c>
-      <c r="P1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" t="s">
         <v>244</v>
       </c>
-      <c r="R1" t="s">
-        <v>245</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>291</v>
+      </c>
+      <c r="U1" t="s">
         <v>246</v>
       </c>
-      <c r="T1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U1" t="s">
-        <v>248</v>
-      </c>
       <c r="V1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>257</v>
-      </c>
       <c r="AA1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AC1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AD1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AE1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK1" t="s">
         <v>204</v>
       </c>
-      <c r="AH1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>206</v>
-      </c>
       <c r="AL1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM1" t="s">
         <v>0</v>
@@ -3717,121 +3845,126 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>373</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>374</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>375</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>376</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>377</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>378</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>379</v>
       </c>
-      <c r="J2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K2" t="s">
-        <v>381</v>
-      </c>
       <c r="L2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R2" t="s">
         <v>318</v>
       </c>
-      <c r="P2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T2" t="s">
         <v>319</v>
       </c>
-      <c r="R2" t="s">
-        <v>320</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>274</v>
       </c>
-      <c r="T2" t="s">
-        <v>321</v>
-      </c>
-      <c r="U2" t="s">
-        <v>276</v>
-      </c>
       <c r="V2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="W2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z2" t="s">
         <v>283</v>
       </c>
-      <c r="Y2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>285</v>
-      </c>
       <c r="AA2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AB2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AD2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK2" t="s">
         <v>226</v>
       </c>
-      <c r="AH2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>228</v>
-      </c>
       <c r="AL2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3856,175 +3989,175 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
         <v>382</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>383</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>384</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>385</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>386</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>387</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>388</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>389</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R1" t="s">
+        <v>395</v>
+      </c>
+      <c r="S1" t="s">
+        <v>396</v>
+      </c>
+      <c r="T1" t="s">
+        <v>397</v>
+      </c>
+      <c r="U1" t="s">
+        <v>398</v>
+      </c>
+      <c r="V1" t="s">
+        <v>399</v>
+      </c>
+      <c r="W1" t="s">
+        <v>400</v>
+      </c>
+      <c r="X1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N1" t="s">
-        <v>393</v>
-      </c>
-      <c r="O1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>396</v>
-      </c>
-      <c r="R1" t="s">
-        <v>397</v>
-      </c>
-      <c r="S1" t="s">
-        <v>398</v>
-      </c>
-      <c r="T1" t="s">
-        <v>399</v>
-      </c>
-      <c r="U1" t="s">
-        <v>400</v>
-      </c>
-      <c r="V1" t="s">
-        <v>401</v>
-      </c>
-      <c r="W1" t="s">
-        <v>402</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>403</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>404</v>
       </c>
-      <c r="Z1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>405</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>406</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>408</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>409</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>410</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" t="s">
         <v>411</v>
       </c>
-      <c r="AH1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>412</v>
       </c>
-      <c r="AK1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>413</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>414</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>415</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>416</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>417</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>418</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>419</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX1" t="s">
         <v>420</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>421</v>
       </c>
-      <c r="AU1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>422</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>423</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>424</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>425</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>426</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>427</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>428</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>429</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>430</v>
       </c>
       <c r="BG1" t="s">
         <v>0</v>
@@ -4035,181 +4168,186 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
         <v>431</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>432</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>433</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>434</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>435</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>436</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>437</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>438</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" t="s">
         <v>439</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>440</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>443</v>
+      </c>
+      <c r="R2" t="s">
+        <v>444</v>
+      </c>
+      <c r="S2" t="s">
+        <v>445</v>
+      </c>
+      <c r="T2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U2" t="s">
+        <v>447</v>
+      </c>
+      <c r="V2" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" t="s">
+        <v>449</v>
+      </c>
+      <c r="X2" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z2" t="s">
         <v>217</v>
       </c>
-      <c r="M2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N2" t="s">
-        <v>442</v>
-      </c>
-      <c r="O2" t="s">
-        <v>443</v>
-      </c>
-      <c r="P2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>445</v>
-      </c>
-      <c r="R2" t="s">
-        <v>446</v>
-      </c>
-      <c r="S2" t="s">
-        <v>447</v>
-      </c>
-      <c r="T2" t="s">
-        <v>448</v>
-      </c>
-      <c r="U2" t="s">
-        <v>449</v>
-      </c>
-      <c r="V2" t="s">
-        <v>450</v>
-      </c>
-      <c r="W2" t="s">
-        <v>451</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>452</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>453</v>
       </c>
-      <c r="Z2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>454</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>455</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>456</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>457</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>458</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>459</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL2" t="s">
         <v>460</v>
       </c>
-      <c r="AH2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>461</v>
       </c>
-      <c r="AK2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>462</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>463</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>464</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>465</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>466</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>467</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>468</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX2" t="s">
         <v>469</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
         <v>470</v>
       </c>
-      <c r="AU2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>471</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>472</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>473</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>474</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>475</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>476</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>477</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>478</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>479</v>
       </c>
       <c r="BG2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4234,118 +4372,118 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" t="s">
         <v>385</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
-        <v>389</v>
-      </c>
       <c r="F1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
         <v>390</v>
       </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
         <v>392</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>393</v>
       </c>
-      <c r="J1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K1" t="s">
-        <v>481</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>394</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>395</v>
       </c>
-      <c r="N1" t="s">
-        <v>396</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>397</v>
       </c>
-      <c r="P1" t="s">
-        <v>399</v>
-      </c>
       <c r="Q1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="R1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" t="s">
+        <v>405</v>
+      </c>
+      <c r="T1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>407</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>408</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="V1" t="s">
-        <v>410</v>
-      </c>
-      <c r="W1" t="s">
-        <v>411</v>
-      </c>
       <c r="X1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" t="s">
-        <v>200</v>
-      </c>
       <c r="Z1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB1" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD1" t="s">
         <v>416</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>419</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK1" t="s">
         <v>421</v>
       </c>
-      <c r="AG1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>422</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>423</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>425</v>
       </c>
       <c r="AN1" t="s">
         <v>0</v>
@@ -4356,124 +4494,129 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
         <v>434</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>436</v>
       </c>
-      <c r="E2" t="s">
-        <v>438</v>
-      </c>
       <c r="F2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
         <v>439</v>
       </c>
-      <c r="G2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2" t="s">
         <v>441</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>442</v>
       </c>
-      <c r="J2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>443</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>444</v>
       </c>
-      <c r="N2" t="s">
-        <v>445</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>446</v>
       </c>
-      <c r="P2" t="s">
-        <v>448</v>
-      </c>
       <c r="Q2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R2" t="s">
+        <v>453</v>
+      </c>
+      <c r="S2" t="s">
+        <v>454</v>
+      </c>
+      <c r="T2" t="s">
         <v>455</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>456</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>457</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>458</v>
       </c>
-      <c r="V2" t="s">
-        <v>459</v>
-      </c>
-      <c r="W2" t="s">
-        <v>460</v>
-      </c>
       <c r="X2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y2" t="s">
         <v>220</v>
       </c>
-      <c r="Y2" t="s">
-        <v>222</v>
-      </c>
       <c r="Z2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB2" t="s">
         <v>463</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD2" t="s">
         <v>465</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>466</v>
       </c>
-      <c r="AD2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>468</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AK2" t="s">
         <v>470</v>
       </c>
-      <c r="AG2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>471</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>472</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>474</v>
       </c>
       <c r="AN2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4498,151 +4641,151 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
         <v>484</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>485</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M1" t="s">
-        <v>490</v>
-      </c>
-      <c r="N1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>492</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" t="s">
         <v>493</v>
       </c>
-      <c r="R1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z1" t="s">
         <v>494</v>
       </c>
-      <c r="T1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>495</v>
       </c>
-      <c r="W1" t="s">
-        <v>253</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG1" t="s">
         <v>254</v>
       </c>
-      <c r="Y1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>498</v>
       </c>
-      <c r="AC1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>499</v>
       </c>
-      <c r="AG1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>500</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>501</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>502</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>503</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR1" t="s">
         <v>504</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AS1" t="s">
         <v>505</v>
       </c>
-      <c r="AN1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>506</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV1" t="s">
         <v>507</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>508</v>
       </c>
-      <c r="AU1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>509</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>510</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>511</v>
       </c>
       <c r="AY1" t="s">
         <v>0</v>
@@ -4653,157 +4796,162 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" t="s">
         <v>512</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
         <v>513</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>514</v>
       </c>
-      <c r="F2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" t="s">
         <v>515</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>516</v>
       </c>
-      <c r="I2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>517</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" t="s">
         <v>518</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>519</v>
       </c>
-      <c r="N2" t="s">
-        <v>283</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>520</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
+        <v>273</v>
+      </c>
+      <c r="S2" t="s">
         <v>521</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" t="s">
         <v>522</v>
       </c>
-      <c r="R2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
+        <v>279</v>
+      </c>
+      <c r="X2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z2" t="s">
         <v>523</v>
       </c>
-      <c r="T2" t="s">
-        <v>264</v>
-      </c>
-      <c r="U2" t="s">
-        <v>265</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>524</v>
       </c>
-      <c r="W2" t="s">
-        <v>281</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
         <v>282</v>
       </c>
-      <c r="Y2" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AH2" t="s">
         <v>527</v>
       </c>
-      <c r="AC2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>528</v>
       </c>
-      <c r="AG2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>529</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>530</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>531</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>532</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR2" t="s">
         <v>533</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AS2" t="s">
         <v>534</v>
       </c>
-      <c r="AN2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>535</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AV2" t="s">
         <v>536</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>537</v>
       </c>
-      <c r="AU2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>538</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>540</v>
       </c>
       <c r="AY2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4828,190 +4976,190 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
         <v>382</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>383</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>384</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>385</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>386</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>387</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>388</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>389</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>393</v>
+      </c>
+      <c r="R1" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1" t="s">
+        <v>395</v>
+      </c>
+      <c r="T1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" t="s">
+        <v>397</v>
+      </c>
+      <c r="V1" t="s">
+        <v>398</v>
+      </c>
+      <c r="W1" t="s">
+        <v>399</v>
+      </c>
+      <c r="X1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N1" t="s">
-        <v>393</v>
-      </c>
-      <c r="O1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>395</v>
-      </c>
-      <c r="R1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S1" t="s">
-        <v>397</v>
-      </c>
-      <c r="T1" t="s">
-        <v>398</v>
-      </c>
-      <c r="U1" t="s">
-        <v>399</v>
-      </c>
-      <c r="V1" t="s">
-        <v>400</v>
-      </c>
-      <c r="W1" t="s">
-        <v>401</v>
-      </c>
-      <c r="X1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>403</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>404</v>
       </c>
-      <c r="AA1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>405</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>406</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>407</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>408</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>409</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL1" t="s">
         <v>410</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN1" t="s">
         <v>411</v>
       </c>
-      <c r="AI1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA1" t="s">
         <v>541</v>
       </c>
-      <c r="AL1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="BB1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>421</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>422</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF1" t="s">
         <v>542</v>
       </c>
-      <c r="AT1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>543</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>422</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>423</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>424</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>425</v>
       </c>
-      <c r="BF1" t="s">
-        <v>544</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>426</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>427</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>428</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>429</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>430</v>
       </c>
       <c r="BL1" t="s">
         <v>0</v>
@@ -5022,196 +5170,201 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
         <v>431</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>432</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>433</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>434</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>435</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>436</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>437</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>438</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" t="s">
         <v>439</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>440</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>481</v>
+      </c>
+      <c r="P2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R2" t="s">
+        <v>443</v>
+      </c>
+      <c r="S2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U2" t="s">
+        <v>446</v>
+      </c>
+      <c r="V2" t="s">
+        <v>447</v>
+      </c>
+      <c r="W2" t="s">
+        <v>448</v>
+      </c>
+      <c r="X2" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA2" t="s">
         <v>217</v>
       </c>
-      <c r="M2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N2" t="s">
-        <v>442</v>
-      </c>
-      <c r="O2" t="s">
-        <v>483</v>
-      </c>
-      <c r="P2" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R2" t="s">
-        <v>445</v>
-      </c>
-      <c r="S2" t="s">
-        <v>446</v>
-      </c>
-      <c r="T2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U2" t="s">
-        <v>448</v>
-      </c>
-      <c r="V2" t="s">
-        <v>449</v>
-      </c>
-      <c r="W2" t="s">
-        <v>450</v>
-      </c>
-      <c r="X2" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>452</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>453</v>
       </c>
-      <c r="AA2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>454</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>455</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>456</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>457</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>458</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL2" t="s">
         <v>459</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN2" t="s">
         <v>460</v>
       </c>
-      <c r="AI2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA2" t="s">
         <v>545</v>
       </c>
-      <c r="AL2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>464</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
+        <v>469</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BF2" t="s">
         <v>546</v>
       </c>
-      <c r="AT2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>468</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>547</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>471</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>472</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>473</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>474</v>
       </c>
-      <c r="BF2" t="s">
-        <v>548</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>475</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>476</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>477</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>478</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>479</v>
       </c>
       <c r="BL2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5236,148 +5389,148 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" t="s">
         <v>549</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>550</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>551</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>552</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>553</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>554</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>555</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>556</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>557</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>558</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>559</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>560</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>561</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>562</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>563</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>564</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>565</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>566</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>567</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>568</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>569</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>570</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>571</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>572</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>573</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>574</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>575</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>576</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>577</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>578</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>579</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>580</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK1" t="s">
         <v>581</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM1" t="s">
         <v>582</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>583</v>
       </c>
-      <c r="AL1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>584</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>585</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>586</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>587</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>588</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>589</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>590</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>591</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>592</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>593</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>594</v>
       </c>
       <c r="AX1" t="s">
         <v>0</v>
@@ -5388,154 +5541,159 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" t="s">
         <v>595</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>596</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>598</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>599</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>600</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>601</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>602</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>603</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>604</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>605</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>606</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>607</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>608</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>609</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>610</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>611</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>612</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>613</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>614</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>615</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>616</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>617</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>618</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>619</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>620</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>621</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>622</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>623</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>624</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>625</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>626</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK2" t="s">
         <v>627</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM2" t="s">
         <v>628</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>629</v>
       </c>
-      <c r="AL2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>630</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>631</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>632</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>633</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>634</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>635</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>636</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>637</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>638</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>639</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>640</v>
       </c>
       <c r="AX2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5561,106 +5719,106 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1" t="s">
         <v>641</v>
       </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>642</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>643</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>644</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>645</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" t="s">
         <v>646</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R1" t="s">
         <v>647</v>
       </c>
-      <c r="K1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>648</v>
       </c>
-      <c r="M1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>416</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>649</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" t="s">
         <v>650</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>651</v>
       </c>
-      <c r="U1" t="s">
-        <v>204</v>
-      </c>
-      <c r="V1" t="s">
-        <v>205</v>
-      </c>
-      <c r="W1" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>652</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC1" t="s">
         <v>653</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>654</v>
       </c>
-      <c r="AB1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>655</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>656</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH1" t="s">
         <v>657</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>658</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>660</v>
       </c>
       <c r="AJ1" t="s">
         <v>0</v>
@@ -5671,112 +5829,117 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G2" t="s">
         <v>661</v>
       </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>662</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>663</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>664</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L2" t="s">
         <v>665</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R2" t="s">
         <v>666</v>
       </c>
-      <c r="K2" t="s">
-        <v>455</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>667</v>
       </c>
-      <c r="M2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O2" t="s">
-        <v>223</v>
-      </c>
-      <c r="P2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>465</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>668</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>224</v>
+      </c>
+      <c r="V2" t="s">
+        <v>225</v>
+      </c>
+      <c r="W2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y2" t="s">
         <v>669</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>670</v>
       </c>
-      <c r="U2" t="s">
-        <v>226</v>
-      </c>
-      <c r="V2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>671</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC2" t="s">
         <v>672</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>673</v>
       </c>
-      <c r="AB2" t="s">
-        <v>472</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>674</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>675</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH2" t="s">
         <v>676</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>677</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>476</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>678</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>679</v>
       </c>
       <c r="AJ2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5801,58 +5964,58 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>729</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>730</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>731</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>732</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>733</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>734</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>735</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>736</v>
       </c>
-      <c r="Q1" t="s">
-        <v>737</v>
-      </c>
-      <c r="R1" t="s">
-        <v>738</v>
-      </c>
       <c r="S1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="T1" t="s">
         <v>3</v>
@@ -5872,7 +6035,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5920,7 +6083,7 @@
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T2" t="s">
         <v>21</v>
@@ -5933,6 +6096,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5958,211 +6126,211 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
         <v>382</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>383</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G1" t="s">
         <v>384</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>385</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S1" t="s">
+        <v>393</v>
+      </c>
+      <c r="T1" t="s">
+        <v>394</v>
+      </c>
+      <c r="U1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V1" t="s">
+        <v>679</v>
+      </c>
+      <c r="W1" t="s">
         <v>680</v>
       </c>
-      <c r="G1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>392</v>
-      </c>
-      <c r="O1" t="s">
-        <v>393</v>
-      </c>
-      <c r="P1" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R1" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1" t="s">
-        <v>395</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>397</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB1" t="s">
         <v>681</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP1" t="s">
         <v>682</v>
       </c>
-      <c r="X1" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AQ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AW1" t="s">
         <v>683</v>
       </c>
-      <c r="AC1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AX1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>684</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
+        <v>418</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>421</v>
+      </c>
+      <c r="BH1" t="s">
         <v>685</v>
       </c>
-      <c r="AX1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BI1" t="s">
+        <v>422</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BK1" t="s">
         <v>686</v>
       </c>
-      <c r="BA1" t="s">
-        <v>420</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>421</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>422</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>423</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
+        <v>542</v>
+      </c>
+      <c r="BM1" t="s">
         <v>687</v>
       </c>
-      <c r="BI1" t="s">
-        <v>424</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
+        <v>688</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>689</v>
+      </c>
+      <c r="BP1" t="s">
         <v>425</v>
       </c>
-      <c r="BK1" t="s">
-        <v>688</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>544</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>689</v>
-      </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>690</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>691</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>427</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>692</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>693</v>
       </c>
       <c r="BS1" t="s">
         <v>0</v>
@@ -6173,217 +6341,222 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
         <v>431</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>432</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2" t="s">
         <v>433</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>434</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P2" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>481</v>
+      </c>
+      <c r="R2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S2" t="s">
+        <v>442</v>
+      </c>
+      <c r="T2" t="s">
+        <v>443</v>
+      </c>
+      <c r="U2" t="s">
+        <v>444</v>
+      </c>
+      <c r="V2" t="s">
+        <v>693</v>
+      </c>
+      <c r="W2" t="s">
         <v>694</v>
       </c>
-      <c r="G2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I2" t="s">
-        <v>437</v>
-      </c>
-      <c r="J2" t="s">
-        <v>438</v>
-      </c>
-      <c r="K2" t="s">
-        <v>439</v>
-      </c>
-      <c r="L2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N2" t="s">
-        <v>441</v>
-      </c>
-      <c r="O2" t="s">
-        <v>442</v>
-      </c>
-      <c r="P2" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>483</v>
-      </c>
-      <c r="R2" t="s">
-        <v>443</v>
-      </c>
-      <c r="S2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>445</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>446</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB2" t="s">
         <v>695</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP2" t="s">
         <v>696</v>
       </c>
-      <c r="X2" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AQ2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AW2" t="s">
         <v>697</v>
       </c>
-      <c r="AC2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>455</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>698</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>464</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
+        <v>467</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>468</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BH2" t="s">
         <v>699</v>
       </c>
-      <c r="AX2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>468</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BK2" t="s">
         <v>700</v>
       </c>
-      <c r="BA2" t="s">
-        <v>469</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>470</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>471</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>472</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
+        <v>546</v>
+      </c>
+      <c r="BM2" t="s">
         <v>701</v>
       </c>
-      <c r="BI2" t="s">
-        <v>473</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BN2" t="s">
+        <v>702</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>703</v>
+      </c>
+      <c r="BP2" t="s">
         <v>474</v>
       </c>
-      <c r="BK2" t="s">
-        <v>702</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>548</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>703</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>704</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>705</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>476</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>706</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>707</v>
       </c>
       <c r="BS2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6408,7 +6581,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -6432,13 +6605,13 @@
         <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>33</v>
@@ -6450,13 +6623,13 @@
         <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="Q1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="R1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S1" t="s">
         <v>36</v>
@@ -6488,7 +6661,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6509,16 +6682,16 @@
         <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M2" t="s">
         <v>51</v>
@@ -6530,7 +6703,7 @@
         <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q2" t="s">
         <v>54</v>
@@ -6564,6 +6737,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6578,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6589,13 +6767,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E1" t="s">
         <v>65</v>
@@ -6648,61 +6826,66 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>90</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>93</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" t="s">
-        <v>95</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C2 E1:XFD2 D1 D2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6728,13 +6911,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E1" t="s">
         <v>65</v>
@@ -6755,160 +6938,160 @@
         <v>70</v>
       </c>
       <c r="K1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>104</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>105</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>124</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>125</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>126</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>127</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>128</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>129</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>130</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>135</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>136</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>138</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>139</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>140</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>141</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>142</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>144</v>
       </c>
       <c r="BK1" t="s">
         <v>0</v>
@@ -6919,194 +7102,200 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
       <c r="K2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" t="s">
         <v>145</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>146</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>148</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>149</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>150</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>151</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>152</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>153</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>154</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>155</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>156</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>158</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>159</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>160</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>161</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>162</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>163</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>164</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>165</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>166</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>167</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>168</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>169</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AR2" t="s">
         <v>170</v>
       </c>
-      <c r="AN2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>171</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>172</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>173</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>174</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>175</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>176</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>177</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>178</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>179</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>180</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>181</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>182</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>183</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>184</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>185</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>186</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>187</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>188</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>189</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C2 E1:XFD2 D1 D2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7130,70 +7319,70 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>199</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>200</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>203</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>204</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>205</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>207</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>208</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>209</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>210</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>211</v>
-      </c>
-      <c r="V1" t="s">
-        <v>212</v>
-      </c>
-      <c r="W1" t="s">
-        <v>213</v>
       </c>
       <c r="X1" t="s">
         <v>0</v>
@@ -7204,76 +7393,81 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>215</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>216</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>217</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>218</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>219</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>220</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>221</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>222</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>223</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>224</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>225</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>226</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>227</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>229</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>230</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>231</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>232</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
-      </c>
-      <c r="V2" t="s">
-        <v>234</v>
-      </c>
-      <c r="W2" t="s">
-        <v>235</v>
       </c>
       <c r="X2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7298,82 +7492,82 @@
         <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1" t="s">
         <v>741</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>742</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>743</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>744</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>745</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>746</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>747</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>748</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>749</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" t="s">
         <v>750</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>751</v>
       </c>
-      <c r="M1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>752</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>753</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>754</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>755</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>756</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>757</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>758</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>759</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>760</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>761</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>763</v>
       </c>
       <c r="AB1" t="s">
         <v>0</v>
@@ -7384,88 +7578,93 @@
         <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D2" t="s">
         <v>764</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>765</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>766</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>767</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>768</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>769</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>770</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>771</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>772</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" t="s">
         <v>773</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" t="s">
         <v>774</v>
       </c>
-      <c r="M2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>775</v>
       </c>
-      <c r="O2" t="s">
-        <v>220</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>776</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>777</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>778</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>779</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>780</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>781</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>782</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>783</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>784</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>785</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>786</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>787</v>
       </c>
       <c r="AB2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7490,112 +7689,112 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" t="s">
         <v>236</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>237</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>238</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>240</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
         <v>241</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>243</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>245</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>250</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>251</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>252</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>253</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>254</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>255</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>256</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>258</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>259</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>260</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>261</v>
       </c>
-      <c r="AC1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>263</v>
-      </c>
       <c r="AE1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK1" t="s">
         <v>204</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>206</v>
       </c>
       <c r="AL1" t="s">
         <v>0</v>
@@ -7606,118 +7805,123 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
         <v>264</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>265</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>267</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>268</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" t="s">
         <v>269</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>270</v>
       </c>
-      <c r="I2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>271</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>272</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>273</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>274</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>275</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>276</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>277</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>278</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>279</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>280</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>281</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>282</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>283</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>284</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>285</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>286</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>287</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>288</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>289</v>
       </c>
-      <c r="AC2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>291</v>
-      </c>
       <c r="AE2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK2" t="s">
         <v>226</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>228</v>
       </c>
       <c r="AL2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7742,145 +7946,145 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
         <v>239</v>
       </c>
-      <c r="D1" t="s">
-        <v>241</v>
-      </c>
       <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
         <v>242</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R1" t="s">
         <v>292</v>
       </c>
-      <c r="G1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>293</v>
       </c>
-      <c r="L1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>257</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>294</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>295</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>296</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>297</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>298</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>299</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>300</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>301</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>302</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>303</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>304</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>305</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>306</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>307</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>308</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>309</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>310</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>317</v>
-      </c>
       <c r="AP1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AQ1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>206</v>
       </c>
       <c r="AW1" t="s">
         <v>0</v>
@@ -7891,151 +8095,156 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
         <v>267</v>
       </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
         <v>318</v>
       </c>
-      <c r="G2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" t="s">
         <v>319</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R2" t="s">
         <v>320</v>
       </c>
-      <c r="J2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>321</v>
       </c>
-      <c r="L2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M2" t="s">
-        <v>277</v>
-      </c>
-      <c r="N2" t="s">
-        <v>280</v>
-      </c>
-      <c r="O2" t="s">
-        <v>283</v>
-      </c>
-      <c r="P2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>322</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>323</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>324</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>325</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>326</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>327</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>328</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>329</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>330</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>331</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>332</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>333</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>334</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>335</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>336</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>337</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>338</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>339</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>340</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>341</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>342</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>343</v>
       </c>
-      <c r="AN2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>345</v>
-      </c>
       <c r="AP2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AQ2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV2" t="s">
         <v>226</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>228</v>
       </c>
       <c r="AW2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
